--- a/students.xlsx
+++ b/students.xlsx
@@ -18,11 +18,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -79,35 +86,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +411,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -523,7 +533,7 @@
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>2203051240090</t>
         </is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -545,12 +545,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>2003-01-01</t>
+          <t>2003-01-08</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Maurya Vihar Colony, Khagaul, Bihar 801105</t>
+          <t>Maurya Vihar Colony, Khagaul, Bihar 801106</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -595,24 +595,30 @@
           <t>Jaydeep Shivaji Ukirde</t>
         </is>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>37575</v>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>2002-11-15 00:00:00</t>
+        </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Pune, Maharashtra</t>
         </is>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>9876512345</v>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>9876512345</t>
+        </is>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
           <t>B.Tech IT</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>4</v>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
@@ -641,24 +647,30 @@
           <t>Rahul Kumar Rajak</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>37716</v>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>2003-04-05 00:00:00</t>
+        </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Gaya, Bihar</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>9876523456</v>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>9876523456</t>
+        </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
           <t>B.Tech CSE</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>4</v>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>

--- a/students.xlsx
+++ b/students.xlsx
@@ -550,7 +550,7 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Maurya Vihar Colony, Khagaul, Bihar 801106</t>
+          <t>Maurya Vihar Colony, Khagaul, Bihar 801105</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">

--- a/students.xlsx
+++ b/students.xlsx
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -118,6 +118,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,11 +408,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -479,6 +480,46 @@
           <t>Remarks</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Roll Number</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CGPA</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Admission Year</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Admission Category</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="13.8" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -948,7 +989,7 @@
       <c r="G11" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>2203051240061@paruluniversity.ac.in</t>
         </is>
@@ -966,6 +1007,9 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12">
